--- a/list.xlsx
+++ b/list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Certificate Number</t>
   </si>
@@ -30,10 +30,22 @@
     </r>
   </si>
   <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>Zoro</t>
   </si>
   <si>
+    <t>OnePiece</t>
+  </si>
+  <si>
     <t xml:space="preserve">Levi Ackerman</t>
+  </si>
+  <si>
+    <t>AttackOnTitan</t>
   </si>
 </sst>
 </file>
@@ -651,13 +663,25 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1999</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -665,7 +689,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2013</v>
       </c>
     </row>
     <row r="4" ht="13.5">
